--- a/online_experiment/analysis/short_answers/scored/b2_b3/alex/23.xlsx
+++ b/online_experiment/analysis/short_answers/scored/b2_b3/alex/23.xlsx
@@ -213,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -225,6 +225,11 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -232,11 +237,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +260,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -369,53 +380,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -439,7 +564,9 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fffeffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -456,10 +583,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -653,14 +780,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -675,35 +803,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -956,14 +1078,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1252,7 +1380,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1533,7 +1661,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1802,7 +1930,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="11">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s" s="13">
         <v>37</v>
@@ -2017,6 +2145,75 @@
       <c r="U7" s="11">
         <v>3</v>
       </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
